--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3014103.176550907</v>
+        <v>3013716.466149107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.397864435</v>
+        <v>247834.3978644335</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736547</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>266.5034653090644</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>18.34224573907919</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.56627272594156</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -801,7 +801,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>41.7062827300888</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>65.79123926981575</v>
+        <v>125.2040305762915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>270.5263727570839</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.7332815080978</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>48.86711274158022</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>131.334584560825</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.63244338022754</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.6454110494304</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>167.5114672407412</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>93.8032859959367</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>26.01386798712263</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5625113513812</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>146.2575390893803</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.815496182162406</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>212.3863765432185</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>72.39975148972478</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>39.19800413111457</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932745</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472776</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F13" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H14" t="n">
-        <v>137.6347683888499</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.23653013623263</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043521916</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>122.7710337916609</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>198.0919004321767</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F17" t="n">
         <v>239.0058540900594</v>
@@ -1859,10 +1859,10 @@
         <v>240.9391219874819</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V17" t="n">
         <v>162.6056566701461</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>11.25159433703895</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>102.9092285451878</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960597</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W19" t="n">
         <v>112.2910127749029</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070601</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>198.0919004321767</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F20" t="n">
         <v>239.0058540900594</v>
@@ -2096,10 +2096,10 @@
         <v>240.9391219874819</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V20" t="n">
         <v>162.6056566701461</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043521871</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2214,7 +2214,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>128.622959935943</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960597</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W22" t="n">
         <v>112.2910127749029</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070601</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>198.0919004321767</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F23" t="n">
         <v>239.0058540900594</v>
@@ -2333,10 +2333,10 @@
         <v>240.9391219874819</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V23" t="n">
         <v>162.6056566701461</v>
@@ -2403,13 +2403,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>57.87084530196874</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>39.75433043521786</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960597</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W25" t="n">
         <v>112.2910127749029</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070601</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2570,7 +2570,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0715758306097</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>57.6588612950832</v>
@@ -2609,10 +2609,10 @@
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>76.40124085712139</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
@@ -2637,7 +2637,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541863</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>264.6842555723119</v>
@@ -2807,10 +2807,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>6.577451273889532</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>16.16116373505744</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2925,7 +2925,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2934,7 +2934,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554795</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.4524160856739</v>
+        <v>248.452416085674</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433556</v>
+        <v>236.4637330433558</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878836</v>
+        <v>227.4450370878837</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577891</v>
+        <v>249.1871746577893</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457663</v>
+        <v>268.3589907457664</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431888</v>
+        <v>270.292258643189</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214987</v>
+        <v>187.8423736214989</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612686</v>
+        <v>29.43833876612703</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878449</v>
+        <v>43.70599757878466</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913385</v>
+        <v>80.46466876913402</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6857948859808</v>
+        <v>110.685794885981</v>
       </c>
       <c r="V32" t="n">
-        <v>191.958793325853</v>
+        <v>191.9587933258532</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038099</v>
+        <v>217.2588928038101</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365565</v>
+        <v>236.5591510365567</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327553</v>
+        <v>247.9557488327554</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3120,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -3168,7 +3168,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935196</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037094</v>
+        <v>40.06912696037111</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577142</v>
+        <v>26.26912180577159</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349809</v>
+        <v>9.89048620334998</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129258</v>
+        <v>8.838236059129429</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315567</v>
+        <v>9.305160387315738</v>
       </c>
       <c r="G34" t="n">
-        <v>25.5798631086634</v>
+        <v>25.57986310866357</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135382</v>
+        <v>16.12823073135399</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183172</v>
+        <v>1.110325916183342</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600482</v>
+        <v>6.375875534600652</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318423</v>
+        <v>69.9219769331844</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531286</v>
+        <v>89.19647561531303</v>
       </c>
       <c r="U34" t="n">
-        <v>142.667649078626</v>
+        <v>142.6676490786262</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599965</v>
+        <v>116.4772633599967</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306098</v>
+        <v>141.64414943061</v>
       </c>
       <c r="X34" t="n">
-        <v>87.2892514264129</v>
+        <v>87.28925142641307</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248059</v>
+        <v>78.16411918248076</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133678</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3755,10 +3755,10 @@
         <v>251.5836253810632</v>
       </c>
       <c r="H41" t="n">
-        <v>82.58758271188</v>
+        <v>169.1337403593731</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400126</v>
+        <v>10.72970550400129</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665889</v>
+        <v>24.99736431665892</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700825</v>
+        <v>61.75603550700828</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385521</v>
+        <v>91.97716162385524</v>
       </c>
       <c r="V41" t="n">
         <v>173.2501600637274</v>
@@ -3806,7 +3806,7 @@
         <v>217.8505177744309</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706297</v>
+        <v>142.7009579231353</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824534</v>
+        <v>21.36049369824536</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645818</v>
+        <v>7.560488543645846</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846537801</v>
+        <v>6.87122984653783</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105862</v>
+        <v>51.21334367105865</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318726</v>
+        <v>70.48784235318729</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165004</v>
+        <v>123.9590158165005</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787093</v>
+        <v>97.76863009787095</v>
       </c>
       <c r="W43" t="n">
         <v>122.9355161684842</v>
       </c>
       <c r="X43" t="n">
-        <v>68.5806181642873</v>
+        <v>68.58061816428733</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035499</v>
+        <v>59.45548592035502</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>251.5836253810632</v>
       </c>
       <c r="H44" t="n">
-        <v>82.58758271187997</v>
+        <v>144.3436182188871</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400126</v>
+        <v>10.72970550400129</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665889</v>
+        <v>24.99736431665892</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700825</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385521</v>
+        <v>91.97716162385524</v>
       </c>
       <c r="V44" t="n">
         <v>173.2501600637274</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824534</v>
+        <v>21.36049369824536</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543645818</v>
+        <v>7.560488543645846</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846537801</v>
+        <v>6.87122984653783</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105862</v>
+        <v>51.21334367105865</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318726</v>
+        <v>70.48784235318729</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165004</v>
+        <v>123.9590158165005</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787093</v>
+        <v>97.76863009787095</v>
       </c>
       <c r="W46" t="n">
         <v>122.9355161684842</v>
       </c>
       <c r="X46" t="n">
-        <v>68.5806181642873</v>
+        <v>68.58061816428733</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035499</v>
+        <v>59.45548592035502</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.031910567874</v>
+        <v>1085.984437716502</v>
       </c>
       <c r="C2" t="n">
-        <v>636.0981519006816</v>
+        <v>704.0506790493096</v>
       </c>
       <c r="D2" t="n">
-        <v>636.0981519006816</v>
+        <v>331.2267142765331</v>
       </c>
       <c r="E2" t="n">
-        <v>241.3124320067885</v>
+        <v>62.03129477242763</v>
       </c>
       <c r="F2" t="n">
-        <v>231.2016453573628</v>
+        <v>51.92050812300202</v>
       </c>
       <c r="G2" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="H2" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7966482385272</v>
+        <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>593.6820213234735</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M2" t="n">
-        <v>986.9211875765614</v>
+        <v>986.9211875765627</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264277</v>
+        <v>1365.252546264278</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737111</v>
+        <v>1670.257130737112</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193164</v>
+        <v>1898.414027193165</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R2" t="n">
-        <v>1992.846280879701</v>
+        <v>1902.207994375556</v>
       </c>
       <c r="S2" t="n">
-        <v>1805.617305510055</v>
+        <v>1902.207994375556</v>
       </c>
       <c r="T2" t="n">
-        <v>1805.617305510055</v>
+        <v>1677.849048106567</v>
       </c>
       <c r="U2" t="n">
-        <v>1805.617305510055</v>
+        <v>1422.963711820561</v>
       </c>
       <c r="V2" t="n">
-        <v>1805.617305510055</v>
+        <v>1085.984437716502</v>
       </c>
       <c r="W2" t="n">
-        <v>1805.617305510055</v>
+        <v>1085.984437716502</v>
       </c>
       <c r="X2" t="n">
-        <v>1805.617305510055</v>
+        <v>1085.984437716502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1412.075450085893</v>
+        <v>1085.984437716502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.1696861196382</v>
+        <v>850.7874008096991</v>
       </c>
       <c r="C3" t="n">
-        <v>757.4660133605929</v>
+        <v>689.0837280506538</v>
       </c>
       <c r="D3" t="n">
-        <v>618.627376350805</v>
+        <v>550.2450910408659</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>403.2170810977372</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>268.5232830476115</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>139.794783070896</v>
       </c>
       <c r="H3" t="n">
-        <v>108.239210927533</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J3" t="n">
         <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>329.6016247108888</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L3" t="n">
-        <v>329.6016247108888</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="M3" t="n">
-        <v>647.5493265165328</v>
+        <v>814.6349782211153</v>
       </c>
       <c r="N3" t="n">
-        <v>1140.778781034259</v>
+        <v>1307.864432738842</v>
       </c>
       <c r="O3" t="n">
-        <v>1532.97873181841</v>
+        <v>1700.064383522992</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.074651094107</v>
+        <v>1835.074651094108</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R3" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="S3" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="T3" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="U3" t="n">
-        <v>1938.738934691881</v>
+        <v>1714.567219572958</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.343312140215</v>
+        <v>1486.171597021292</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.027443373526</v>
+        <v>1244.855728254602</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.11045525132</v>
+        <v>1202.728169941381</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.589128900899</v>
+        <v>1010.20684359096</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="C4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="D4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="E4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="F4" t="n">
-        <v>352.9797186470655</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="G4" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="H4" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223743</v>
+        <v>73.46111336223746</v>
       </c>
       <c r="L4" t="n">
         <v>174.0681927624969</v>
@@ -4519,19 +4519,19 @@
         <v>571.9161708635265</v>
       </c>
       <c r="U4" t="n">
-        <v>505.4603736212884</v>
+        <v>445.4474531096968</v>
       </c>
       <c r="V4" t="n">
-        <v>505.4603736212884</v>
+        <v>445.4474531096968</v>
       </c>
       <c r="W4" t="n">
-        <v>505.4603736212884</v>
+        <v>445.4474531096968</v>
       </c>
       <c r="X4" t="n">
-        <v>505.4603736212884</v>
+        <v>445.4474531096968</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.4603736212884</v>
+        <v>223.4122943019739</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>497.2023330049681</v>
+        <v>1213.752695119992</v>
       </c>
       <c r="C5" t="n">
-        <v>497.2023330049681</v>
+        <v>940.4937327390987</v>
       </c>
       <c r="D5" t="n">
-        <v>124.3783682321917</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="E5" t="n">
-        <v>124.3783682321917</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="F5" t="n">
-        <v>51.92050812300198</v>
+        <v>557.5589813168967</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759402</v>
+        <v>545.4953988114887</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759402</v>
+        <v>212.674124408798</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J5" t="n">
         <v>111.8554698903997</v>
@@ -4571,7 +4571,7 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>699.8812150201287</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M5" t="n">
         <v>1093.120381273217</v>
@@ -4583,34 +4583,34 @@
         <v>1776.456324433766</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193164</v>
+        <v>1898.414027193165</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375554</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.207994375554</v>
+        <v>1805.617305510056</v>
       </c>
       <c r="T5" t="n">
-        <v>1902.207994375554</v>
+        <v>1805.617305510056</v>
       </c>
       <c r="U5" t="n">
-        <v>1647.322658089548</v>
+        <v>1550.73196922405</v>
       </c>
       <c r="V5" t="n">
-        <v>1647.322658089548</v>
+        <v>1213.752695119992</v>
       </c>
       <c r="W5" t="n">
-        <v>1284.787727947149</v>
+        <v>1213.752695119992</v>
       </c>
       <c r="X5" t="n">
-        <v>1284.787727947149</v>
+        <v>1213.752695119992</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.2458725229873</v>
+        <v>1213.752695119992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.1210433796816</v>
+        <v>694.9979710007146</v>
       </c>
       <c r="C6" t="n">
-        <v>460.4173706206363</v>
+        <v>533.2942982416694</v>
       </c>
       <c r="D6" t="n">
-        <v>321.5787336108484</v>
+        <v>533.2942982416694</v>
       </c>
       <c r="E6" t="n">
-        <v>174.5507236677197</v>
+        <v>386.2662882985406</v>
       </c>
       <c r="F6" t="n">
-        <v>39.85692561759402</v>
+        <v>336.9055683575505</v>
       </c>
       <c r="G6" t="n">
-        <v>39.85692561759402</v>
+        <v>208.177068380835</v>
       </c>
       <c r="H6" t="n">
-        <v>39.85692561759402</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J6" t="n">
-        <v>39.85692561759402</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>39.85692561759402</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6787707877097</v>
+        <v>464.6118922820045</v>
       </c>
       <c r="M6" t="n">
-        <v>890.712124297936</v>
+        <v>949.645245792231</v>
       </c>
       <c r="N6" t="n">
-        <v>1383.941578815662</v>
+        <v>1442.874700309957</v>
       </c>
       <c r="O6" t="n">
-        <v>1776.141529599813</v>
+        <v>1835.074651094108</v>
       </c>
       <c r="P6" t="n">
-        <v>1992.846280879701</v>
+        <v>1835.074651094108</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879701</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="T6" t="n">
-        <v>1860.185084353615</v>
+        <v>1933.062011974648</v>
       </c>
       <c r="U6" t="n">
-        <v>1641.690291951925</v>
+        <v>1714.567219572958</v>
       </c>
       <c r="V6" t="n">
-        <v>1413.294669400259</v>
+        <v>1486.171597021292</v>
       </c>
       <c r="W6" t="n">
-        <v>1171.978800633569</v>
+        <v>1244.855728254602</v>
       </c>
       <c r="X6" t="n">
-        <v>974.0618125113637</v>
+        <v>1046.938740132397</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.5404861609425</v>
+        <v>854.4174137819756</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.8732987622866</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="C7" t="n">
-        <v>361.2573292239669</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="D7" t="n">
-        <v>361.2573292239669</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="E7" t="n">
-        <v>361.2573292239669</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="F7" t="n">
-        <v>208.776674249744</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223743</v>
+        <v>73.46111336223746</v>
       </c>
       <c r="L7" t="n">
         <v>174.0681927624969</v>
@@ -4759,16 +4759,16 @@
         <v>571.9161708635265</v>
       </c>
       <c r="V7" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001949</v>
       </c>
       <c r="W7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="X7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759405</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.0158240472368</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0158240472368</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1786.215572286826</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1531.33023600082</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1531.33023600082</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>1168.795305858421</v>
+        <v>1595.030028692528</v>
       </c>
       <c r="X8" t="n">
-        <v>786.7651653799144</v>
+        <v>1212.999888214021</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.2233099557524</v>
+        <v>1212.999888214021</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.5650081937138</v>
+        <v>869.0598005954041</v>
       </c>
       <c r="C9" t="n">
-        <v>488.8613354346685</v>
+        <v>707.3561278363588</v>
       </c>
       <c r="D9" t="n">
-        <v>350.0226984248806</v>
+        <v>568.5174908265709</v>
       </c>
       <c r="E9" t="n">
-        <v>202.9946884817518</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>68.30089043162613</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4914,19 +4914,19 @@
         <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.134256765957</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="V9" t="n">
-        <v>1441.738634214291</v>
+        <v>1660.233426615981</v>
       </c>
       <c r="W9" t="n">
-        <v>1200.422765447601</v>
+        <v>1418.917557849291</v>
       </c>
       <c r="X9" t="n">
-        <v>1002.505777325396</v>
+        <v>1221.000569727086</v>
       </c>
       <c r="Y9" t="n">
-        <v>809.9844509749746</v>
+        <v>1028.479243376665</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="D10" t="n">
-        <v>423.0102575578577</v>
+        <v>189.7591440702702</v>
       </c>
       <c r="E10" t="n">
-        <v>271.0012433191765</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>271.0012433191765</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -5002,10 +5002,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>342.8310372425075</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1674.757673999925</v>
+        <v>1189.154490441574</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.399840088498</v>
+        <v>1189.154490441574</v>
       </c>
       <c r="D11" t="n">
-        <v>1149.151800071488</v>
+        <v>930.9064504245641</v>
       </c>
       <c r="E11" t="n">
-        <v>868.9420049333617</v>
+        <v>650.6966552864374</v>
       </c>
       <c r="F11" t="n">
-        <v>569.3667389992983</v>
+        <v>351.1213893523741</v>
       </c>
       <c r="G11" t="n">
-        <v>267.8386772092528</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="H11" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5918718351341</v>
+        <v>233.8877356882607</v>
       </c>
       <c r="K11" t="n">
-        <v>361.7322438799169</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L11" t="n">
-        <v>709.6176169648631</v>
+        <v>821.9134808179897</v>
       </c>
       <c r="M11" t="n">
-        <v>1102.856783217951</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N11" t="n">
-        <v>1593.484005758794</v>
+        <v>1818.075733465047</v>
       </c>
       <c r="O11" t="n">
-        <v>1932.485500267579</v>
+        <v>2123.08031793788</v>
       </c>
       <c r="P11" t="n">
-        <v>2272.938260576759</v>
+        <v>2351.237214393934</v>
       </c>
       <c r="Q11" t="n">
-        <v>2479.666378116422</v>
+        <v>2456.205098866011</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S11" t="n">
-        <v>2471.77193752838</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="T11" t="n">
-        <v>2361.988916015157</v>
+        <v>2369.883356603201</v>
       </c>
       <c r="U11" t="n">
-        <v>2221.679504484918</v>
+        <v>2229.573945072961</v>
       </c>
       <c r="V11" t="n">
-        <v>2221.679504484918</v>
+        <v>2015.042251594963</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.679504484918</v>
+        <v>2015.042251594963</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.225288762177</v>
+        <v>1747.588035872222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.225288762177</v>
+        <v>1468.622105203827</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840.3334774161603</v>
+        <v>860.5238027544334</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953881</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524105</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022848</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5139,31 +5139,31 @@
         <v>2395.754741518936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R12" t="n">
-        <v>2419.882109211368</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S12" t="n">
-        <v>2267.082622224108</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T12" t="n">
-        <v>2078.397518390094</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U12" t="n">
-        <v>1859.902725988404</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V12" t="n">
-        <v>1631.507103436738</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W12" t="n">
-        <v>1390.191234670048</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.274246547842</v>
+        <v>1212.464571886115</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.7529201974213</v>
+        <v>1019.943245535694</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456222</v>
+        <v>347.2348244456226</v>
       </c>
       <c r="C13" t="n">
-        <v>292.194779663069</v>
+        <v>292.1947796630692</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465981</v>
+        <v>253.6988112465983</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636835</v>
       </c>
       <c r="F13" t="n">
         <v>178.360991545227</v>
@@ -5191,25 +5191,25 @@
         <v>124.0171676688434</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388357</v>
+        <v>79.22044720388358</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J13" t="n">
         <v>103.0270918774858</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752559</v>
+        <v>248.9271434752558</v>
       </c>
       <c r="L13" t="n">
         <v>461.830086728642</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093704</v>
+        <v>692.1194567093703</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120975</v>
+        <v>922.8376623120972</v>
       </c>
       <c r="O13" t="n">
         <v>1133.597172660914</v>
@@ -5224,25 +5224,25 @@
         <v>1348.44107921193</v>
       </c>
       <c r="S13" t="n">
-        <v>1249.307241371384</v>
+        <v>1249.307241371385</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.704212942829</v>
+        <v>1130.70421294283</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876956</v>
+        <v>958.089898187696</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018845</v>
+        <v>811.930518501885</v>
       </c>
       <c r="W13" t="n">
-        <v>640.35004177505</v>
+        <v>640.3500417750504</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261923</v>
+        <v>523.6735024261925</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742358</v>
+        <v>416.214268374236</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.778616963034</v>
+        <v>1433.423682101299</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.420783051607</v>
+        <v>1166.065848189873</v>
       </c>
       <c r="D14" t="n">
-        <v>1128.172743034597</v>
+        <v>907.8178081728629</v>
       </c>
       <c r="E14" t="n">
-        <v>847.9629478964706</v>
+        <v>627.6080130347361</v>
       </c>
       <c r="F14" t="n">
-        <v>548.3876819624073</v>
+        <v>627.6080130347361</v>
       </c>
       <c r="G14" t="n">
-        <v>246.8596201723617</v>
+        <v>326.0799512446904</v>
       </c>
       <c r="H14" t="n">
-        <v>107.834601597766</v>
+        <v>107.8346015977661</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J14" t="n">
-        <v>233.8877356882608</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K14" t="n">
-        <v>484.5637385185825</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L14" t="n">
-        <v>944.7449754566553</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M14" t="n">
-        <v>1450.28000556287</v>
+        <v>1136.853693253903</v>
       </c>
       <c r="N14" t="n">
-        <v>1828.611364250586</v>
+        <v>1515.185051941619</v>
       </c>
       <c r="O14" t="n">
-        <v>2133.615948723419</v>
+        <v>1932.48550026758</v>
       </c>
       <c r="P14" t="n">
-        <v>2361.772845179473</v>
+        <v>2272.93826057676</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.20509886601</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116422</v>
+        <v>2407.013327502544</v>
       </c>
       <c r="T14" t="n">
-        <v>2479.666378116422</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U14" t="n">
-        <v>2479.666378116422</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="V14" t="n">
-        <v>2479.666378116422</v>
+        <v>2228.304517972925</v>
       </c>
       <c r="W14" t="n">
-        <v>2479.666378116422</v>
+        <v>1980.345512586292</v>
       </c>
       <c r="X14" t="n">
-        <v>2212.212162393682</v>
+        <v>1712.891296863552</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.246231725286</v>
+        <v>1712.891296863552</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161613</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>678.629804657116</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473281</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524105</v>
+        <v>392.7631577041993</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022848</v>
+        <v>258.0693596540737</v>
       </c>
       <c r="G15" t="n">
         <v>217.9134703255694</v>
@@ -5352,7 +5352,7 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J15" t="n">
         <v>109.8474740954346</v>
@@ -5376,31 +5376,31 @@
         <v>2395.754741518936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R15" t="n">
-        <v>2479.666378116422</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S15" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390095</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988405</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436739</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670049</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974222</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456226</v>
+        <v>347.2348244456222</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630693</v>
+        <v>292.194779663069</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465984</v>
+        <v>253.698811246598</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636837</v>
+        <v>216.2657217636833</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3609915452271</v>
+        <v>178.3609915452267</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688435</v>
+        <v>124.0171676688433</v>
       </c>
       <c r="H16" t="n">
         <v>79.22044720388352</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774856</v>
+        <v>103.0270918774859</v>
       </c>
       <c r="K16" t="n">
         <v>248.9271434752559</v>
       </c>
       <c r="L16" t="n">
-        <v>461.830086728642</v>
+        <v>461.8300867286421</v>
       </c>
       <c r="M16" t="n">
         <v>692.1194567093704</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120972</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660914</v>
@@ -5467,19 +5467,19 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876958</v>
+        <v>958.0898981876953</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018848</v>
+        <v>811.9305185018843</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750504</v>
+        <v>640.3500417750498</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261925</v>
+        <v>523.6735024261918</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.214268374236</v>
+        <v>416.2142683742355</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951884</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C17" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187272</v>
+        <v>916.6170176187276</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782401</v>
+        <v>694.5624337782405</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418169</v>
+        <v>453.1423791418168</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494104</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012641</v>
+        <v>49.67939030012645</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J17" t="n">
         <v>121.5918718351341</v>
@@ -5519,46 +5519,46 @@
         <v>361.7322438799169</v>
       </c>
       <c r="L17" t="n">
-        <v>709.6176169648631</v>
+        <v>741.9145456683093</v>
       </c>
       <c r="M17" t="n">
-        <v>1223.98829652411</v>
+        <v>1135.153711921397</v>
       </c>
       <c r="N17" t="n">
-        <v>1602.319655211826</v>
+        <v>1513.485070609113</v>
       </c>
       <c r="O17" t="n">
-        <v>1907.32423968466</v>
+        <v>1987.78344152789</v>
       </c>
       <c r="P17" t="n">
-        <v>2135.481136140713</v>
+        <v>2215.940337983943</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273193</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T17" t="n">
         <v>2413.5407285846</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301347</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212354</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787253</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416497</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>840.3334774161603</v>
+        <v>928.9060880643725</v>
       </c>
       <c r="C18" t="n">
-        <v>678.6298046571151</v>
+        <v>767.2024153053272</v>
       </c>
       <c r="D18" t="n">
-        <v>539.7911676473271</v>
+        <v>628.3637782955393</v>
       </c>
       <c r="E18" t="n">
-        <v>392.7631577041984</v>
+        <v>481.3357683524106</v>
       </c>
       <c r="F18" t="n">
-        <v>258.0693596540727</v>
+        <v>346.6419703022849</v>
       </c>
       <c r="G18" t="n">
-        <v>129.3408596773573</v>
+        <v>217.9134703255694</v>
       </c>
       <c r="H18" t="n">
         <v>117.9756128722675</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="J18" t="n">
-        <v>49.59332756232845</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K18" t="n">
-        <v>265.4780334675162</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L18" t="n">
-        <v>631.2998786376319</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.333232147858</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.59887827098</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055131</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330828</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S18" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.397518390094</v>
+        <v>2078.397518390095</v>
       </c>
       <c r="U18" t="n">
-        <v>1859.902725988404</v>
+        <v>1859.902725988405</v>
       </c>
       <c r="V18" t="n">
-        <v>1631.507103436738</v>
+        <v>1631.507103436739</v>
       </c>
       <c r="W18" t="n">
-        <v>1390.191234670048</v>
+        <v>1390.191234670049</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.274246547842</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.7529201974213</v>
+        <v>1088.325530845633</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232847</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232845</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232845</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697187</v>
+        <v>87.10283444623026</v>
       </c>
       <c r="L19" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046128</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162035</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280322</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330224</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951884</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C20" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187275</v>
+        <v>916.6170176187276</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782403</v>
+        <v>694.5624337782405</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418167</v>
+        <v>453.1423791418168</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494107</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012641</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J20" t="n">
         <v>121.5918718351341</v>
@@ -5756,31 +5756,31 @@
         <v>361.7322438799169</v>
       </c>
       <c r="L20" t="n">
-        <v>709.6176169648631</v>
+        <v>878.9114034108063</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.856783217951</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.188141905667</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O20" t="n">
-        <v>1786.192726378501</v>
+        <v>1955.486512824444</v>
       </c>
       <c r="P20" t="n">
-        <v>2183.643409280497</v>
+        <v>2304.774922586657</v>
       </c>
       <c r="Q20" t="n">
-        <v>2447.369449412977</v>
+        <v>2399.207176273194</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584599</v>
+        <v>2413.5407285846</v>
       </c>
       <c r="U20" t="n">
         <v>2331.386528352</v>
@@ -5789,10 +5789,10 @@
         <v>2167.138390301347</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212354</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787253</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y20" t="n">
         <v>1547.224872416498</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524105</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022848</v>
+        <v>258.0693596540732</v>
       </c>
       <c r="G21" t="n">
         <v>217.9134703255694</v>
@@ -5826,55 +5826,55 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J21" t="n">
-        <v>49.59332756232845</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4780334675162</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L21" t="n">
-        <v>631.2998786376319</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.333232147858</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.59887827098</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055131</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330828</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T21" t="n">
         <v>2078.397518390094</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="D22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="E22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="F22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="J22" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="K22" t="n">
         <v>83.19751530697187</v>
       </c>
       <c r="L22" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M22" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N22" t="n">
-        <v>420.2204425844335</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O22" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P22" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046128</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162035</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280322</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330224</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951886</v>
       </c>
       <c r="C23" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187278</v>
+        <v>916.617017618728</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782407</v>
+        <v>694.5624337782409</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418171</v>
+        <v>453.1423791418173</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494111</v>
+        <v>209.7695286494113</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012639</v>
+        <v>49.67939030012646</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="J23" t="n">
         <v>121.5918718351341</v>
       </c>
       <c r="K23" t="n">
-        <v>531.0260303258601</v>
+        <v>482.8637571860774</v>
       </c>
       <c r="L23" t="n">
-        <v>878.9114034108063</v>
+        <v>830.7491302710237</v>
       </c>
       <c r="M23" t="n">
-        <v>1441.444356109837</v>
+        <v>1223.988296524112</v>
       </c>
       <c r="N23" t="n">
-        <v>1819.775714797553</v>
+        <v>1602.319655211827</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.780299270387</v>
+        <v>2076.618026130604</v>
       </c>
       <c r="P23" t="n">
-        <v>2352.93719572644</v>
+        <v>2304.774922586658</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.369449412977</v>
+        <v>2399.207176273195</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584599</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528351999</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301347</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W23" t="n">
         <v>1977.334596212355</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787255</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416499</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>840.3334774161599</v>
+        <v>840.3334774161617</v>
       </c>
       <c r="C24" t="n">
-        <v>678.6298046571146</v>
+        <v>678.6298046571164</v>
       </c>
       <c r="D24" t="n">
-        <v>539.7911676473267</v>
+        <v>539.7911676473285</v>
       </c>
       <c r="E24" t="n">
-        <v>392.7631577041979</v>
+        <v>481.3357683524106</v>
       </c>
       <c r="F24" t="n">
-        <v>258.0693596540723</v>
+        <v>346.6419703022849</v>
       </c>
       <c r="G24" t="n">
         <v>217.9134703255694</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722674</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="J24" t="n">
         <v>109.8474740954346</v>
@@ -6072,46 +6072,46 @@
         <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>631.2998786376314</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.333232147858</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.59887827098</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055131</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330828</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390093</v>
+        <v>2078.397518390095</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988404</v>
+        <v>1859.902725988405</v>
       </c>
       <c r="V24" t="n">
-        <v>1631.507103436737</v>
+        <v>1631.507103436739</v>
       </c>
       <c r="W24" t="n">
-        <v>1390.191234670047</v>
+        <v>1390.191234670049</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.274246547842</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.7529201974208</v>
+        <v>999.7529201974227</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158685</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697185</v>
+        <v>87.10283444623026</v>
       </c>
       <c r="L25" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464898</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740915</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844334</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046128</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736978</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162035</v>
+        <v>369.6723448162037</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280322</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330222</v>
+        <v>60.41756019330229</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1645.261565143646</v>
+        <v>1485.994656762844</v>
       </c>
       <c r="C26" t="n">
-        <v>1377.903731232219</v>
+        <v>1218.636822851417</v>
       </c>
       <c r="D26" t="n">
-        <v>1119.655691215209</v>
+        <v>1218.636822851417</v>
       </c>
       <c r="E26" t="n">
-        <v>839.4458960770826</v>
+        <v>938.4270277132908</v>
       </c>
       <c r="F26" t="n">
-        <v>539.8706301430193</v>
+        <v>638.8517617792276</v>
       </c>
       <c r="G26" t="n">
-        <v>238.3425683529742</v>
+        <v>337.323699989182</v>
       </c>
       <c r="H26" t="n">
         <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682011</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327524</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306619</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
@@ -6239,7 +6239,7 @@
         <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6251,25 +6251,25 @@
         <v>3041.853815341009</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
         <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683667</v>
+        <v>2782.244772651157</v>
       </c>
       <c r="V26" t="n">
-        <v>2719.108331683667</v>
+        <v>2559.841423302865</v>
       </c>
       <c r="W26" t="n">
-        <v>2471.149326297034</v>
+        <v>2311.882417916232</v>
       </c>
       <c r="X26" t="n">
-        <v>2203.695110574294</v>
+        <v>2044.428202193492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1924.729179905898</v>
+        <v>1765.462271525096</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
         <v>639.6075270400311</v>
@@ -6327,28 +6327,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6364,19 +6364,19 @@
         <v>303.4385284075607</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910898</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081752</v>
+        <v>227.509470508175</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897187</v>
+        <v>189.6047402897186</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133351</v>
+        <v>135.260916413335</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837522</v>
+        <v>90.46419594837523</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
@@ -6388,13 +6388,13 @@
         <v>260.1708922197476</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731338</v>
+        <v>473.0738354731334</v>
       </c>
       <c r="M28" t="n">
         <v>703.3632054538622</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565894</v>
+        <v>934.0814110565892</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
@@ -6403,7 +6403,7 @@
         <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586278</v>
       </c>
       <c r="R28" t="n">
         <v>1359.684827956422</v>
@@ -6415,16 +6415,16 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463765</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195417</v>
+        <v>651.593790519542</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706838</v>
+        <v>534.9172511706839</v>
       </c>
       <c r="Y28" t="n">
         <v>427.4580171187274</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1532.641237308576</v>
+        <v>1702.325830557606</v>
       </c>
       <c r="C29" t="n">
-        <v>1265.28340339715</v>
+        <v>1434.96799664618</v>
       </c>
       <c r="D29" t="n">
-        <v>1007.035363380139</v>
+        <v>1176.71995662917</v>
       </c>
       <c r="E29" t="n">
-        <v>726.8255682420125</v>
+        <v>896.5101614910427</v>
       </c>
       <c r="F29" t="n">
-        <v>427.2503023079493</v>
+        <v>596.9348955569794</v>
       </c>
       <c r="G29" t="n">
-        <v>125.7222405179036</v>
+        <v>295.4068337669344</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422578</v>
+        <v>77.1614841200095</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
@@ -6464,10 +6464,10 @@
         <v>245.1314844327525</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306615</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.748957268735</v>
+        <v>1057.748957268734</v>
       </c>
       <c r="M29" t="n">
         <v>1563.283987374949</v>
@@ -6488,25 +6488,25 @@
         <v>3041.853815341009</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2969.200764727129</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2828.89135319689</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V29" t="n">
-        <v>2606.488003848598</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W29" t="n">
-        <v>2358.528998461965</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X29" t="n">
-        <v>2091.074782739224</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y29" t="n">
-        <v>1812.108852070829</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6573,13 +6573,13 @@
         <v>2163.501260322693</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W30" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X30" t="n">
         <v>1292.090605940546</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901137</v>
+        <v>358.478573190114</v>
       </c>
       <c r="C31" t="n">
         <v>303.4385284075607</v>
@@ -6604,34 +6604,34 @@
         <v>264.9425599910898</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081751</v>
+        <v>227.509470508175</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897187</v>
+        <v>189.6047402897186</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2609164133351</v>
+        <v>135.260916413335</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837528</v>
+        <v>90.46419594837523</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219772</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K31" t="n">
         <v>260.1708922197475</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731336</v>
+        <v>473.0738354731337</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538618</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565889</v>
+        <v>934.0814110565891</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
@@ -6661,10 +6661,10 @@
         <v>651.5937905195417</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706838</v>
+        <v>534.9172511706839</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187272</v>
+        <v>427.4580171187274</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1303.684062512361</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807427</v>
+        <v>1073.941600807428</v>
       </c>
       <c r="E32" t="n">
         <v>822.2373839813779</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593918</v>
+        <v>551.1676963593916</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814233</v>
+        <v>278.1452128814229</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657543</v>
+        <v>88.40544154657564</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321496</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528141</v>
+        <v>130.6682900960207</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543901</v>
+        <v>511.0428432975967</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.39657869613</v>
+        <v>999.1623975393361</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.635744949218</v>
+        <v>1455.460057833151</v>
       </c>
       <c r="N32" t="n">
-        <v>2051.201284793727</v>
+        <v>1833.791416520867</v>
       </c>
       <c r="O32" t="n">
-        <v>2356.205869266561</v>
+        <v>2279.030182150495</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763338</v>
+        <v>2647.421259763341</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606669</v>
+        <v>2882.087694606671</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160748</v>
+        <v>2933.48729116075</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858946</v>
+        <v>2889.339818858948</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.0623756578</v>
+        <v>2808.062375657802</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.258542439638</v>
+        <v>2696.258542439639</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403423</v>
+        <v>2502.360771403424</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328867</v>
+        <v>2282.907344328868</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918204</v>
+        <v>2043.958706918205</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561885</v>
+        <v>1793.498354561886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.2698888651546</v>
+        <v>937.9825063252591</v>
       </c>
       <c r="C33" t="n">
-        <v>761.5662161061093</v>
+        <v>776.2788335662138</v>
       </c>
       <c r="D33" t="n">
-        <v>622.7275790963214</v>
+        <v>637.4401965564259</v>
       </c>
       <c r="E33" t="n">
-        <v>475.6995691531926</v>
+        <v>490.4121866132971</v>
       </c>
       <c r="F33" t="n">
-        <v>341.005771103067</v>
+        <v>355.7183885631714</v>
       </c>
       <c r="G33" t="n">
         <v>226.9898885864559</v>
@@ -6774,7 +6774,7 @@
         <v>127.052031133154</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321496</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866253</v>
+        <v>714.2362900866254</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6816,13 +6816,13 @@
         <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.127646119042</v>
+        <v>1487.840263579146</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.210657996837</v>
+        <v>1289.923275456941</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.689331646415</v>
+        <v>1097.40194910652</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219689</v>
+        <v>156.7721945219702</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514928</v>
+        <v>130.2377280514938</v>
       </c>
       <c r="D34" t="n">
-        <v>120.247337947099</v>
+        <v>120.2473379470999</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762614</v>
+        <v>111.3198267762621</v>
       </c>
       <c r="F34" t="n">
-        <v>101.920674869882</v>
+        <v>101.9206748698826</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557556</v>
+        <v>76.08242930557594</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269291</v>
+        <v>59.79128715269312</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321496</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J34" t="n">
-        <v>140.0418274420391</v>
+        <v>58.669745823215</v>
       </c>
       <c r="K34" t="n">
-        <v>173.6460151866825</v>
+        <v>92.27393356785842</v>
       </c>
       <c r="L34" t="n">
-        <v>274.253094586942</v>
+        <v>333.1151941249112</v>
       </c>
       <c r="M34" t="n">
-        <v>392.2466007145437</v>
+        <v>451.1087002525129</v>
       </c>
       <c r="N34" t="n">
-        <v>532.2440568255431</v>
+        <v>709.7652231589066</v>
       </c>
       <c r="O34" t="n">
-        <v>630.7077033212328</v>
+        <v>808.2288696545962</v>
       </c>
       <c r="P34" t="n">
-        <v>833.910368206164</v>
+        <v>936.3741011094409</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.374101109438</v>
+        <v>936.3741011094409</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916597</v>
+        <v>929.9338227916625</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631908</v>
+        <v>859.3055632631933</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467132</v>
+        <v>769.2081131467155</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036566</v>
+        <v>625.0993767036587</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299227</v>
+        <v>507.4455753299246</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151653</v>
+        <v>364.3706769151671</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783846</v>
+        <v>276.1997158783862</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385052</v>
+        <v>197.2460601385067</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479469</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927297</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776759</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582347</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.5005000384</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119209</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7032,34 +7032,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P36" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318694</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211974</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749092</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>107.8392327839468</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>208.4463121842062</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>326.439818311808</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>444.8621600614084</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>543.3258065570981</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
         <v>629.3786802696717</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>567.8831210837625</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>915.7684941687087</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421797</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1927.439983488862</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7324,34 +7324,34 @@
         <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
         <v>629.3786802696717</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.263619900708</v>
+        <v>1402.683981160803</v>
       </c>
       <c r="C41" t="n">
-        <v>1095.308973657042</v>
+        <v>1182.729334917136</v>
       </c>
       <c r="D41" t="n">
-        <v>884.4641213077912</v>
+        <v>971.8844825678857</v>
       </c>
       <c r="E41" t="n">
-        <v>651.6575138374239</v>
+        <v>739.0778750975185</v>
       </c>
       <c r="F41" t="n">
-        <v>399.4854355711202</v>
+        <v>486.9057968312147</v>
       </c>
       <c r="G41" t="n">
-        <v>145.3605614488345</v>
+        <v>232.7809227089286</v>
       </c>
       <c r="H41" t="n">
-        <v>61.93876072976378</v>
+        <v>61.93876072976381</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
@@ -7412,25 +7412,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>490.4726292905172</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>838.3580023754635</v>
+        <v>869.8806918509182</v>
       </c>
       <c r="M41" t="n">
-        <v>1390.352896714849</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1641.451216791722</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>2105.211529350854</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2333.368425806907</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2485.112574620703</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7451,10 +7451,10 @@
         <v>1998.941818050818</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.890789995838</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y41" t="n">
-        <v>1547.328046995201</v>
+        <v>1634.748408255296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550354</v>
+        <v>65.6781676855036</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070981</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070981</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070981</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070981</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
@@ -7576,43 +7576,43 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.804449136307</v>
+        <v>407.8044491363074</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859073</v>
+        <v>526.2267908859078</v>
       </c>
       <c r="O43" t="n">
-        <v>624.690437381597</v>
+        <v>624.6904373815975</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097348</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097348</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097348</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369484</v>
+        <v>635.9282709369487</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761532</v>
+        <v>564.7284301761534</v>
       </c>
       <c r="U43" t="n">
-        <v>439.517303088779</v>
+        <v>439.5173030887793</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707276</v>
+        <v>340.7611110707278</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116527</v>
+        <v>216.5838220116528</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305544</v>
+        <v>147.3104703305545</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635741</v>
+        <v>87.25442394635749</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.263619900709</v>
+        <v>1377.643453746172</v>
       </c>
       <c r="C44" t="n">
-        <v>1095.308973657042</v>
+        <v>1157.688807502505</v>
       </c>
       <c r="D44" t="n">
-        <v>884.4641213077916</v>
+        <v>946.8439551532545</v>
       </c>
       <c r="E44" t="n">
-        <v>651.6575138374244</v>
+        <v>714.0373476828872</v>
       </c>
       <c r="F44" t="n">
-        <v>399.4854355711207</v>
+        <v>461.8652694165835</v>
       </c>
       <c r="G44" t="n">
-        <v>145.3605614488345</v>
+        <v>207.7403952942974</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976378</v>
+        <v>61.93876072976381</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J44" t="n">
-        <v>281.8549467211892</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
         <v>521.9953187659719</v>
@@ -7655,43 +7655,43 @@
         <v>1028.636419937216</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.108624801147</v>
+        <v>1421.875586190304</v>
       </c>
       <c r="N44" t="n">
-        <v>1927.439983488863</v>
+        <v>1800.20694487802</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>2105.211529350854</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2333.368425806907</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2485.112574620704</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2529.783855158167</v>
+        <v>2529.783855158168</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.404021312704</v>
+        <v>2529.783855158168</v>
       </c>
       <c r="U44" t="n">
-        <v>2374.497797450224</v>
+        <v>2436.877631295688</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.497635769691</v>
+        <v>2261.877469615155</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050818</v>
+        <v>2061.321651896282</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995838</v>
+        <v>1841.270623841301</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.328046995202</v>
+        <v>1609.707880840665</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
@@ -7749,10 +7749,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
         <v>2168.477475838063</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550354</v>
+        <v>65.67816768550361</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070982</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070982</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070982</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070978</v>
+        <v>58.04131057070982</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
@@ -7816,40 +7816,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>526.2267908859078</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>624.6904373815975</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097348</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097348</v>
+        <v>687.6589211097353</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369484</v>
+        <v>635.9282709369487</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761532</v>
+        <v>564.7284301761534</v>
       </c>
       <c r="U46" t="n">
-        <v>439.517303088779</v>
+        <v>439.5173030887793</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707276</v>
+        <v>340.7611110707278</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116527</v>
+        <v>216.5838220116528</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305544</v>
+        <v>147.3104703305545</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635741</v>
+        <v>87.25442394635752</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>314.1171235176099</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>477.0956807157792</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8064,16 +8064,16 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>436.6431973148157</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876337</v>
+        <v>604.9267112876339</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>245.228213671735</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>311.0664077980225</v>
+        <v>311.0664077980241</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>248.9494412187394</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876335</v>
+        <v>604.9267112876339</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>327.7478941856463</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4944203312425</v>
+        <v>198.4944203312434</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.4944203312425</v>
+        <v>198.4944203312434</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>330.0615286668564</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>339.395545506558</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>330.0615286668564</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312429</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>407.4863951691358</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312438</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319188</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.11102392557842</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>7.792939311590871</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>78.42812776160517</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>151.9427857185767</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="15">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>97.99132031984539</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,10 +24497,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>62.50507655781576</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>209.4854448765655</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.49769756002576</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>86.54615764749312</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>86.5461576474944</v>
       </c>
     </row>
     <row r="42">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>86.54615764749315</v>
+        <v>24.79012214048609</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>61.75603550700828</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684661.4877108972</v>
+        <v>684661.487710897</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684661.4877108972</v>
+        <v>684661.487710897</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>652480.4514200547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>652480.4514200547</v>
+      </c>
+      <c r="D2" t="n">
         <v>652480.4514200548</v>
       </c>
-      <c r="C2" t="n">
-        <v>652480.4514200549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>652480.4514200547</v>
-      </c>
       <c r="E2" t="n">
-        <v>594048.9447135398</v>
+        <v>594048.9447135394</v>
       </c>
       <c r="F2" t="n">
-        <v>594048.9447135398</v>
+        <v>594048.9447135396</v>
       </c>
       <c r="G2" t="n">
         <v>652480.4514200551</v>
       </c>
       <c r="H2" t="n">
-        <v>652480.451420055</v>
+        <v>652480.4514200554</v>
       </c>
       <c r="I2" t="n">
-        <v>652480.4514200552</v>
+        <v>652480.4514200554</v>
       </c>
       <c r="J2" t="n">
-        <v>630953.0261764779</v>
+        <v>630953.0261764777</v>
       </c>
       <c r="K2" t="n">
-        <v>630953.0261764769</v>
+        <v>630953.026176477</v>
       </c>
       <c r="L2" t="n">
-        <v>652480.4514200538</v>
+        <v>652480.4514200543</v>
       </c>
       <c r="M2" t="n">
         <v>652480.4514200548</v>
       </c>
       <c r="N2" t="n">
-        <v>652480.4514200549</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="O2" t="n">
         <v>646624.7383936258</v>
       </c>
       <c r="P2" t="n">
-        <v>646624.7383936256</v>
+        <v>646624.7383936259</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.156046812</v>
+        <v>166962.1560468121</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528581</v>
+        <v>8415.473351528457</v>
       </c>
       <c r="E3" t="n">
         <v>118993.61014058</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.515593756</v>
+        <v>211812.5155937559</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089567</v>
+        <v>68635.34537089552</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423349</v>
+        <v>19582.70168423362</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430341</v>
+        <v>40069.40998430338</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193077.2086614257</v>
+        <v>193077.2086614256</v>
       </c>
       <c r="C4" t="n">
-        <v>193077.2086614257</v>
+        <v>193077.2086614256</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>138310.8849250983</v>
+        <v>138310.8849250982</v>
       </c>
       <c r="F4" t="n">
         <v>138310.8849250983</v>
@@ -26442,7 +26442,7 @@
         <v>161896.3971701088</v>
       </c>
       <c r="K4" t="n">
-        <v>161896.3971701087</v>
+        <v>161896.3971701088</v>
       </c>
       <c r="L4" t="n">
         <v>176099.8977090712</v>
@@ -26451,7 +26451,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
       <c r="O4" t="n">
         <v>171709.2306900061</v>
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937146</v>
+        <v>63918.86346937147</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937145</v>
+        <v>63918.86346937147</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147922</v>
+        <v>47226.88953147923</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147922</v>
+        <v>47226.88953147923</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.04948547467</v>
+        <v>52067.04948547469</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547467</v>
+        <v>52067.04948547468</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547466</v>
+        <v>52067.04948547469</v>
       </c>
       <c r="J5" t="n">
         <v>55772.13857729294</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729293</v>
+        <v>55772.13857729294</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.4385182398</v>
+        <v>56497.43851823981</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228522.2232424456</v>
+        <v>228522.2232424454</v>
       </c>
       <c r="C6" t="n">
-        <v>395484.3792892577</v>
+        <v>395484.3792892576</v>
       </c>
       <c r="D6" t="n">
-        <v>392723.1840983215</v>
+        <v>392723.1840983218</v>
       </c>
       <c r="E6" t="n">
-        <v>289517.5601163823</v>
+        <v>289345.7027437157</v>
       </c>
       <c r="F6" t="n">
-        <v>408511.1702569623</v>
+        <v>408339.3128842958</v>
       </c>
       <c r="G6" t="n">
         <v>377056.0733447655</v>
       </c>
       <c r="H6" t="n">
-        <v>423115.000692496</v>
+        <v>423115.0006924963</v>
       </c>
       <c r="I6" t="n">
         <v>423115.0006924963</v>
       </c>
       <c r="J6" t="n">
-        <v>201471.9748353202</v>
+        <v>201408.6588787213</v>
       </c>
       <c r="K6" t="n">
-        <v>413284.4904290752</v>
+        <v>413221.1744724766</v>
       </c>
       <c r="L6" t="n">
-        <v>351247.7698218472</v>
+        <v>351247.7698218478</v>
       </c>
       <c r="M6" t="n">
-        <v>404471.8123029392</v>
+        <v>404471.8123029391</v>
       </c>
       <c r="N6" t="n">
-        <v>424054.5139871729</v>
+        <v>424054.5139871728</v>
       </c>
       <c r="O6" t="n">
-        <v>382528.3374218211</v>
+        <v>382511.1147364493</v>
       </c>
       <c r="P6" t="n">
-        <v>422597.7474061243</v>
+        <v>422580.5247207528</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199252</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291056</v>
+        <v>619.9165945291059</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291056</v>
+        <v>619.9165945291059</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291056</v>
+        <v>619.9165945291059</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291056</v>
+        <v>619.9165945291057</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291055</v>
+        <v>619.916594529106</v>
       </c>
       <c r="J4" t="n">
         <v>760.4634538352522</v>
@@ -26817,10 +26817,10 @@
         <v>760.4634538352522</v>
       </c>
       <c r="L4" t="n">
-        <v>733.371822790187</v>
+        <v>733.3718227901875</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26829,7 +26829,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354552</v>
+        <v>55.8565063235455</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361958</v>
+        <v>85.79418171361939</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529186</v>
+        <v>24.47837710529203</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037926</v>
+        <v>50.08676248037922</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506513</v>
+        <v>27.09163104506473</v>
       </c>
       <c r="E4" t="n">
-        <v>94.6133932641153</v>
+        <v>94.61339326411547</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354552</v>
+        <v>55.8565063235455</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506513</v>
+        <v>27.09163104506473</v>
       </c>
       <c r="M4" t="n">
-        <v>94.6133932641153</v>
+        <v>94.61339326411547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>124.3343973858898</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.6007009412747</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27512,7 +27512,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>162.7435717517314</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>154.2315355108946</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27546,16 +27546,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27591,7 +27591,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>218.5270978459754</v>
+        <v>159.1143065394996</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>107.5880483234368</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>338.2763972748336</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>84.47974732804417</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>55.46366823484965</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0873716173085</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,10 +27783,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.4576930734085</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>191.3981136002338</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>51.75444384776077</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>101.4273469898256</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>1.978662889133659</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.231385006914081</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28111,7 +28111,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="O11" t="n">
-        <v>34.34031316762764</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10.64205129852526</v>
+      </c>
+      <c r="R11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>87.68688454173007</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>19.98842208488909</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28348,31 +28348,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34.34031316762861</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K14" t="n">
-        <v>10.64205129852417</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="P14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>87.6868845417291</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>28.50045832572619</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28591,46 +28591,46 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>32.62316030651129</v>
       </c>
       <c r="M17" t="n">
-        <v>122.3550639456155</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="R17" t="n">
-        <v>171.003824692872</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.68688454172998</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>87.68688454172911</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>146.7057807606799</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,28 +28767,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790971</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>171.003824692872</v>
+        <v>122.3550639456161</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3550639456155</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="S20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>87.68688454172955</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>87.68688454172988</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.944766807331717</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>151.9713303790971</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,46 +29035,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>171.003824692872</v>
+        <v>122.3550639456167</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.3550639456151</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="S23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="24">
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>87.68688454172873</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>87.68688454173039</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>155.4859410478466</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790971</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="26">
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.5654912855037</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082083</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29554,7 +29554,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4301655082089</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
         <v>113.4301655082087</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371651</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="L32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>63.69544852598733</v>
       </c>
       <c r="N32" t="n">
-        <v>141.6506880371651</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="P32" t="n">
-        <v>63.69544852598432</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>14.5654912855035</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="J34" t="n">
-        <v>141.6506880371651</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>21.79304480949396</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141.6506880371651</v>
+        <v>65.83509871384528</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6506880371651</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371651</v>
+        <v>141.6506880371649</v>
       </c>
     </row>
     <row r="35">
@@ -30007,10 +30007,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934903</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,16 +30019,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>40.58157162935032</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550282</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30162,13 +30162,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>23.31756564084426</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>40.58157162934944</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>116.9787331327003</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30405,7 +30405,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>38.33547045601495</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30484,28 +30484,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>128.5182208190334</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>160.3593212992907</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>160.3593212992907</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>57.89080315884755</v>
+      </c>
+      <c r="R41" t="n">
         <v>160.3593212992907</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>160.3593212992907</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>105.5545469714309</v>
+        <v>105.5545469714314</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30718,16 +30718,16 @@
         <v>160.3593212992907</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>160.3593212992907</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>160.3593212992907</v>
       </c>
       <c r="M44" t="n">
-        <v>128.5182208190333</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>57.890803158848</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>160.3593212992907</v>
       </c>
       <c r="S44" t="n">
         <v>160.3593212992907</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>105.5545469714313</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.7065149042787</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34699,13 +34699,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>135.2941195435631</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>289.9393662186201</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>321.1592947531757</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>136.3740076475916</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>123.189598746866</v>
+        <v>123.1895987468676</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>136.3740076475916</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199252</v>
+        <v>498.2115702199256</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>218.8936881615029</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35416,22 +35416,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>495.5830530715579</v>
       </c>
       <c r="O11" t="n">
-        <v>342.4257520290761</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>106.0281661334111</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.75922888634994</v>
+        <v>84.75922888635087</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823975</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35574,19 +35574,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P13" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>253.2080836669916</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>510.6414445517319</v>
+        <v>431.5515922111518</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.75922888634994</v>
+        <v>84.75922888635087</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P16" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>384.0225270589822</v>
       </c>
       <c r="M17" t="n">
-        <v>519.5663429891387</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543204</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.3899395277579</v>
+        <v>266.3899395277578</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376679</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>218.0653595001897</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824147</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.944766807331698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.944766807331583</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>522.4031914453428</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.4653362646429</v>
+        <v>352.816575517387</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.3899395277579</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>32.62316030651035</v>
+        <v>81.27192105376676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>218.0653595001897</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635041</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>105.5680793328464</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.944766807331583</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>413.5698570613394</v>
+        <v>364.9210963140841</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>568.2151037363951</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543204</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>32.62316030650989</v>
+        <v>81.27192105376676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>294.910961597988</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635132</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.944766807331691</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331583</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766758</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36850,10 +36850,10 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.8162803430947</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37008,7 +37008,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329284</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056325</v>
+        <v>384.2167204056324</v>
       </c>
       <c r="L32" t="n">
-        <v>493.050054789636</v>
+        <v>493.0500547896359</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>460.9067275695105</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8035756005143</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>449.7361268986133</v>
       </c>
       <c r="P32" t="n">
-        <v>294.1569600977552</v>
+        <v>372.1121996089358</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720509</v>
+        <v>237.0368028720508</v>
       </c>
       <c r="R32" t="n">
-        <v>51.9187843980599</v>
+        <v>51.91878439805973</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.19402183719609</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>243.2740005626796</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>141.4115718292923</v>
+        <v>261.2692150569633</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>205.2552170554861</v>
+        <v>129.4396277321663</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4987201043172</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251123</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37315,16 +37315,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>348.6670104907988</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37400,10 +37400,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077755</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444125</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37479,7 +37479,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>86.92209465916527</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978169</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960495</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.9436239844883</v>
+        <v>72.27909444050324</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37719,10 +37719,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>371.0842531875008</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>511.7586880517616</v>
       </c>
       <c r="M41" t="n">
-        <v>557.5706003428138</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>542.5122088626399</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>468.4447601607391</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>153.2769179937334</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>70.62741766018547</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>224.7399066962811</v>
+        <v>224.7399066962816</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.085123595054</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>402.9253536677581</v>
       </c>
       <c r="L44" t="n">
         <v>511.7586880517616</v>
       </c>
       <c r="M44" t="n">
-        <v>525.7294998625565</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>153.2769179937339</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>70.62741766018547</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6185270197983</v>
+        <v>225.1730739912297</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.5545469714308</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
